--- a/會考題目/探究實作題目數量統計.xlsx
+++ b/會考題目/探究實作題目數量統計.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,6 @@
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
     <sheet name="工作表4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.0" hidden="1">工作表3!$C$1:$C$8</definedName>
-    <definedName name="_xlchart.1" hidden="1">工作表3!$D$1:$D$8</definedName>
-    <definedName name="_xlchart.2" hidden="1">工作表3!$C$1:$C$8</definedName>
-    <definedName name="_xlchart.3" hidden="1">工作表3!$D$1:$D$8</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="75">
   <si>
     <t>下午2:52:09</t>
   </si>
@@ -261,6 +255,10 @@
   </si>
   <si>
     <t>分類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110補</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,7 +357,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14148204077230073"/>
+          <c:y val="0.15873015873015872"/>
+          <c:w val="0.78800821103587737"/>
+          <c:h val="0.67349833350313648"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -367,22 +375,11 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表3!$C$1:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表3!$C$1:$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>103</c:v>
                 </c:pt>
@@ -407,15 +404,69 @@
                 <c:pt idx="7">
                   <c:v>110</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="8">
+                  <c:v>110補</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>111</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表3!$C$1:$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110補</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>111</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表3!$D$1:$D$8</c:f>
+              <c:f>工作表3!$D$1:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -440,12 +491,18 @@
                 <c:pt idx="7">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6D5F-4300-ABB5-913A14084FCC}"/>
+              <c16:uniqueId val="{0000000A-5DBD-462C-B041-DFDB0AF8D7BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -459,11 +516,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="548433648"/>
-        <c:axId val="548432336"/>
+        <c:axId val="497190952"/>
+        <c:axId val="497188000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="548433648"/>
+        <c:axId val="497190952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -490,7 +547,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="zh-TW"/>
-                  <a:t>年</a:t>
+                  <a:t>年度</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -562,7 +619,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548432336"/>
+        <c:crossAx val="497188000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -570,7 +627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="548432336"/>
+        <c:axId val="497188000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -620,8 +677,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="5.6818880081461404E-3"/>
-              <c:y val="7.1752554368203977E-2"/>
+              <c:x val="7.7785684111385811E-2"/>
+              <c:y val="6.3999453408206133E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -684,7 +741,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548433648"/>
+        <c:crossAx val="497190952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1280,20 +1337,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="2" name="圖表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2689,11 +2746,11 @@
         <v>54</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I5" si="0">FIND(G2,A2)</f>
+        <f t="shared" ref="I2:I4" si="0">FIND(G2,A2)</f>
         <v>1</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J5" si="1">LEFT(A2,I2-1)</f>
+        <f t="shared" ref="J2:J4" si="1">LEFT(A2,I2-1)</f>
         <v/>
       </c>
     </row>
@@ -4118,8 +4175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4144,7 +4201,7 @@
         <v>104</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D9" si="0">COUNTIF(A:A,C2)</f>
+        <f t="shared" ref="D2:D8" si="0">COUNTIF(A:A,C2)</f>
         <v>2</v>
       </c>
     </row>
@@ -4224,17 +4281,23 @@
       <c r="A9">
         <v>106</v>
       </c>
-      <c r="C9">
-        <v>111</v>
+      <c r="C9" t="s">
+        <v>74</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>106</v>
+      </c>
+      <c r="C10">
+        <v>111</v>
+      </c>
+      <c r="D10">
+        <f>COUNTIF(A:A,C10)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -4393,7 +4456,8 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4401,7 +4465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
